--- a/wanderplan.xlsx
+++ b/wanderplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/d003388/dev/git/wanderplan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DBC2C9-9C7A-A749-B432-8FBE67B4BACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABC51FF-9201-F44A-87C0-55F82D4BF278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" tabRatio="731" xr2:uid="{A1A92D7D-8A13-4FDD-95F3-6FD356609F1F}"/>
+    <workbookView xWindow="2180" yWindow="4320" windowWidth="23260" windowHeight="12460" tabRatio="731" xr2:uid="{A1A92D7D-8A13-4FDD-95F3-6FD356609F1F}"/>
   </bookViews>
   <sheets>
     <sheet name="WEBGen" sheetId="12" r:id="rId1"/>
@@ -656,10 +656,6 @@
     <t>Achim Lochbaum</t>
   </si>
   <si>
-    <t>LW: 13:15 Uhr Wasserhaus Harthausen
-KW: 15:15 Uhr, Wasserhaus Harthausen</t>
-  </si>
-  <si>
     <t>Vom Wasserhaus Harthausen zum Waldhaus Gommersheim und zurück</t>
   </si>
   <si>
@@ -691,6 +687,9 @@
   </si>
   <si>
     <t>Seniorenwanderung nach Weingarten zum „Schlachtfescht“</t>
+  </si>
+  <si>
+    <t>LW: 13:15 Uhr Wasserhaus Harthausen&lt;br&gt;KW: 15:15 Uhr, Wasserhaus Harthausen</t>
   </si>
 </sst>
 </file>
@@ -1396,10 +1395,10 @@
   <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="K31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P40" sqref="P40"/>
+      <selection pane="bottomRight" activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2153,7 +2152,7 @@
         <v>125</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>47</v>
@@ -2162,7 +2161,7 @@
         <v>83</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="32" x14ac:dyDescent="0.2">
@@ -2182,22 +2181,22 @@
         <v>50</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>27</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P21" s="5" t="s">
         <v>71</v>
@@ -2220,10 +2219,10 @@
         <v>22</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>65</v>
@@ -2238,7 +2237,7 @@
         <v>201</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="N22" s="4" t="s">
         <v>199</v>
@@ -2292,13 +2291,13 @@
         <v>17</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>40</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="16" x14ac:dyDescent="0.2">
